--- a/01_Input/00_CO Validation/Philippines - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Philippines - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="11_07EE13C193757A3225BDE5FB35085310783B1F5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0930A784-61FA-4E16-94ED-682FF0A5A588}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_07EE13C193757A3225BDE5FB35085310783B1F5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDDA5559-B9D5-4500-86F1-F943223E206D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="100">
   <si>
     <t>Project ID</t>
   </si>
@@ -128,13 +131,13 @@
     <t>Renewable Energy</t>
   </si>
   <si>
+    <t>Percent share of RE in the power generation mix of the Philippines – based on installed capacity.</t>
+  </si>
+  <si>
+    <t>Reported progress is based on Philippine government data on annual generation mix</t>
+  </si>
+  <si>
     <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Percent share of RE in the power generation mix of the Philippines – based on installed capacity.</t>
-  </si>
-  <si>
-    <t>Reported progress is based on Philippine government data on annual generation mix</t>
   </si>
   <si>
     <t>Number of sitio households in far-flung areas that have obtained access to reliable sources of renewable energy due to the Project</t>
@@ -549,18 +552,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -603,6 +594,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352B3898-2A77-4AE2-836D-F8825DFD7021}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -924,34 +927,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="12" t="s">
@@ -983,579 +986,577 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1">
-      <c r="A2" s="23">
+      <c r="A2" s="19">
         <v>5304</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="19">
         <v>2639726</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20">
         <v>222</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="26" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="30.75">
-      <c r="A3" s="23">
+      <c r="A3" s="19">
         <v>5194</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <v>5200000</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24">
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
         <v>205000</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="30.75">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="G4" s="24">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="28">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="H4" s="29">
-        <v>0.35</v>
-      </c>
-      <c r="I4" s="27" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" s="5" customFormat="1" ht="54.75">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-    </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" ht="54.75">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="31" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-    </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" ht="409.6">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32" t="s">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" s="5" customFormat="1" ht="238.5" customHeight="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="32">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32">
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
         <v>8</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="34" t="s">
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="30.75">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23">
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
         <v>12</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" s="5" customFormat="1" ht="45.75">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="19">
         <v>9</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="19">
         <v>50</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" ht="45.75">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="27" t="s">
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:19" s="5" customFormat="1" ht="60.75">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="27" t="s">
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:19" s="5" customFormat="1" ht="45.75">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="27" t="s">
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:19" s="5" customFormat="1" ht="45.75">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="23">
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
         <v>10</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
     </row>
     <row r="13" spans="1:19" s="5" customFormat="1" ht="45.75">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
         <v>15</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
     </row>
     <row r="14" spans="1:19" s="5" customFormat="1" ht="30.75">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
         <v>15</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:19" s="5" customFormat="1" ht="76.5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23">
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
         <v>3</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
     </row>
     <row r="16" spans="1:19" s="5" customFormat="1" ht="45.75">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23">
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
         <v>10</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
     </row>
     <row r="17" spans="1:19" s="5" customFormat="1" ht="137.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
         <v>5</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
     </row>
     <row r="18" spans="1:19" s="5" customFormat="1" ht="121.5">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
         <v>75</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -1597,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEDAD67-0C13-42EB-BEB4-5CDB4689BABA}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="F5" zoomScale="75" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1715,10 +1716,10 @@
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="30.75">
       <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="9">
         <v>0.14399999999999999</v>
@@ -1727,7 +1728,7 @@
         <v>0.35</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>22</v>
@@ -1736,7 +1737,7 @@
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="45.75">
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>33</v>
@@ -2039,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="E15" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2148,7 +2149,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="9">
         <v>0.14399999999999999</v>
@@ -2157,7 +2158,7 @@
         <v>0.35</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="45.75">
@@ -2171,7 +2172,7 @@
         <v>5200000</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>33</v>
@@ -2565,18 +2566,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="32" t="s">
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="16"/>
+      <c r="A3" s="32"/>
       <c r="B3" t="s">
         <v>53</v>
       </c>
@@ -2585,7 +2586,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="32"/>
       <c r="B4" t="s">
         <v>75</v>
       </c>
@@ -2594,7 +2595,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="33" t="s">
         <v>77</v>
       </c>
       <c r="B5" t="s">
@@ -2605,7 +2606,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="33"/>
       <c r="B6" t="s">
         <v>80</v>
       </c>
@@ -2614,7 +2615,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="33"/>
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -2623,7 +2624,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="33"/>
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -2632,7 +2633,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="33"/>
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -2641,7 +2642,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="34" t="s">
         <v>87</v>
       </c>
       <c r="B10" t="s">
@@ -2652,7 +2653,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="34"/>
       <c r="B11" t="s">
         <v>89</v>
       </c>
@@ -2661,7 +2662,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="35" t="s">
         <v>91</v>
       </c>
       <c r="B12" t="s">
@@ -2672,7 +2673,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="35"/>
       <c r="B13" t="s">
         <v>93</v>
       </c>
@@ -2681,7 +2682,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="35"/>
       <c r="B14" t="s">
         <v>95</v>
       </c>
